--- a/data/org/college/students/2025.xlsx
+++ b/data/org/college/students/2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\folder-as-datalake\data\org\college\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5CB2A2-3ED7-4554-8A14-81FDFA9E1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767D6A83-BB9F-44FA-9B40-E492524378F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="743" yWindow="712" windowWidth="11850" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1418" yWindow="1388" windowWidth="11850" windowHeight="10072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,79 +33,79 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Jean-Babtiste Biot</t>
-  </si>
-  <si>
-    <t>André Marie Ampère</t>
-  </si>
-  <si>
-    <t>Amadeo Avogadro</t>
-  </si>
-  <si>
-    <t>Johann Carl Friedrich Gauss</t>
-  </si>
-  <si>
-    <t>Hans Christian Oersted</t>
-  </si>
-  <si>
-    <t>Sir David Brewster</t>
-  </si>
-  <si>
-    <t>Augustin-Jean Fresnel</t>
-  </si>
-  <si>
-    <t>Michael Faraday</t>
-  </si>
-  <si>
-    <t>Georg Ohm</t>
-  </si>
-  <si>
-    <t>Felix Savart</t>
-  </si>
-  <si>
-    <t>Sadi Carnot</t>
-  </si>
-  <si>
-    <t>Joseph Henry</t>
-  </si>
-  <si>
-    <t>Christian Doppler</t>
-  </si>
-  <si>
-    <t>Wilhelm E. Weber</t>
-  </si>
-  <si>
-    <t>Sir William Hamilton</t>
-  </si>
-  <si>
-    <t>James Prescott Joule</t>
-  </si>
-  <si>
-    <t>Armand-Hippolyte-Louis Fizeau</t>
-  </si>
-  <si>
-    <t>Jean-Bernard-Léon Foucault</t>
-  </si>
-  <si>
-    <t>Sir George Gabriel Stokes</t>
-  </si>
-  <si>
-    <t>Hermann von Helmholtz</t>
-  </si>
-  <si>
-    <t>Rudolf Clausius</t>
-  </si>
-  <si>
-    <t>Lord Kelvin</t>
-  </si>
-  <si>
-    <t>Gustav Kirchhoff</t>
-  </si>
-  <si>
-    <t>Johann Balmer</t>
-  </si>
-  <si>
-    <t>Sir Joseph Wilson Swan</t>
+    <t>Marie Biot</t>
+  </si>
+  <si>
+    <t>Jean Ampère</t>
+  </si>
+  <si>
+    <t>Amadeo Gauss</t>
+  </si>
+  <si>
+    <t>Friedrich Avogadro</t>
+  </si>
+  <si>
+    <t>Christian Brewster</t>
+  </si>
+  <si>
+    <t>David Oersted</t>
+  </si>
+  <si>
+    <t>Jean Faraday</t>
+  </si>
+  <si>
+    <t>Michael Fresnel</t>
+  </si>
+  <si>
+    <t>Georg Savart</t>
+  </si>
+  <si>
+    <t>Felix Ohm</t>
+  </si>
+  <si>
+    <t>Sadi Henry</t>
+  </si>
+  <si>
+    <t>Joseph Carnot</t>
+  </si>
+  <si>
+    <t>Christian Weber</t>
+  </si>
+  <si>
+    <t>Wilhelm Doppler</t>
+  </si>
+  <si>
+    <t>William Joule</t>
+  </si>
+  <si>
+    <t>Prescott Hamilton</t>
+  </si>
+  <si>
+    <t>Bernard Stokes</t>
+  </si>
+  <si>
+    <t>Louis Foucault</t>
+  </si>
+  <si>
+    <t>Gabriel Fizeau</t>
+  </si>
+  <si>
+    <t>Hermann Clausius</t>
+  </si>
+  <si>
+    <t>Rudolf Helmholtz</t>
+  </si>
+  <si>
+    <t>Gustav Kelvin</t>
+  </si>
+  <si>
+    <t>Andre Kirchhoff</t>
+  </si>
+  <si>
+    <t>Johann Swan</t>
+  </si>
+  <si>
+    <t>Wilson Balmer</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
         <v>20225001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -452,7 +452,7 @@
         <v>20225002</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -572,7 +572,7 @@
         <v>20225017</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -580,7 +580,7 @@
         <v>20225018</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
